--- a/fia/Copy of Socialbook (Risposte).xlsx
+++ b/fia/Copy of Socialbook (Risposte).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\progetto is\NewSocialBookRepo\fia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1BF1FF-6FDB-4864-99A1-1EAB1F5A79E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tutti" sheetId="1" r:id="rId4"/>
+    <sheet name="Tutti" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="261">
   <si>
     <t>Informazioni cronologiche</t>
   </si>
@@ -190,12 +199,6 @@
     <t>Autore</t>
   </si>
   <si>
-    <t>Videogiochi, Sport</t>
-  </si>
-  <si>
-    <t>Non leggo</t>
-  </si>
-  <si>
     <t>Leggere, Viaggiare, Arte (disegnare, dipingere, scultura ecc.)</t>
   </si>
   <si>
@@ -797,22 +800,26 @@
   </si>
   <si>
     <t>Drammatico, Fumetti</t>
+  </si>
+  <si>
+    <t>bere</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -822,40 +829,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1045,26 +1057,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="15" width="21.57"/>
+    <col min="1" max="15" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,9 +1108,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44173.81178297454</v>
+        <v>44173.811782974539</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1122,7 +1137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44173.811804490746</v>
       </c>
@@ -1151,7 +1166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44173.814056550924</v>
       </c>
@@ -1180,9 +1195,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44173.81425015046</v>
+        <v>44173.814250150463</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1209,9 +1224,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44173.81442310185</v>
+        <v>44173.814423101852</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -1238,7 +1253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44173.81465615741</v>
       </c>
@@ -1267,7 +1282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44173.81482349537</v>
       </c>
@@ -1296,7 +1311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44173.81506168982</v>
       </c>
@@ -1325,9 +1340,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44173.81543908565</v>
+        <v>44173.815439085651</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1354,9 +1369,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44173.81563952546</v>
+        <v>44173.815639525463</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>44</v>
@@ -1383,9 +1398,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44173.81565020833</v>
+        <v>44173.815650208329</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -1412,7 +1427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44173.816090555556</v>
       </c>
@@ -1441,9 +1456,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44173.81622123843</v>
+        <v>44173.816221238427</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -1470,9 +1485,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44173.81640376158</v>
+        <v>44173.816403761579</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -1499,9 +1514,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44173.817115983795</v>
+        <v>44173.817346504627</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -1516,21 +1531,21 @@
         <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44173.81734650463</v>
+        <v>44173.817644791663</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
@@ -1542,24 +1557,24 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44173.81764479166</v>
+        <v>44173.817933217593</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -1583,56 +1598,56 @@
         <v>15</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44173.81793321759</v>
+        <v>44173.818090428242</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44173.81809042824</v>
+        <v>44173.818614999996</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>71</v>
@@ -1641,12 +1656,12 @@
         <v>15</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44173.818615</v>
+        <v>44173.819454976852</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
@@ -1655,27 +1670,27 @@
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44173.81945497685</v>
+        <v>44173.819899733797</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
@@ -1684,42 +1699,42 @@
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44173.820382499995</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3">
-        <v>44173.8198997338</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>79</v>
@@ -1728,12 +1743,12 @@
         <v>15</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44173.820382499995</v>
+        <v>44173.820586851856</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
@@ -1742,13 +1757,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>81</v>
@@ -1760,70 +1775,70 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44173.820586851856</v>
+        <v>44173.820902523148</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44173.82090252315</v>
+        <v>44173.821392962964</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44173.821392962964</v>
+        <v>44173.822756620371</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1844,24 +1859,24 @@
         <v>15</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44173.82275662037</v>
+        <v>44173.823178541672</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
@@ -1873,30 +1888,30 @@
         <v>15</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44173.823217870369</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3">
-        <v>44173.82317854167</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>15</v>
@@ -1905,12 +1920,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44173.82321787037</v>
+        <v>44173.82373856481</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1919,126 +1934,126 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="H30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44173.824590347227</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44173.824852662037</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3">
-        <v>44173.82373856481</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3">
-        <v>44173.82459034723</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="2" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44173.824917106482</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3">
-        <v>44173.82485266204</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44173.82491710648</v>
+        <v>44173.825542349536</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>102</v>
@@ -2047,41 +2062,41 @@
         <v>15</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44173.825837939818</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3">
-        <v>44173.825542349536</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44173.82583793982</v>
+        <v>44173.826358599537</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
@@ -2093,36 +2108,36 @@
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44173.826420694444</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3">
-        <v>44173.82635859954</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>18</v>
@@ -2137,9 +2152,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44173.826420694444</v>
+        <v>44173.826684942134</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
@@ -2163,12 +2178,12 @@
         <v>15</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44173.826684942134</v>
+        <v>44173.826952789357</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
@@ -2180,39 +2195,39 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44173.82707590278</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3">
-        <v>44173.82695278936</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>112</v>
@@ -2224,12 +2239,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44173.82707590278</v>
+        <v>44173.827242141204</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -2238,27 +2253,27 @@
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44173.827242141204</v>
+        <v>44173.82777689815</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -2267,33 +2282,33 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44173.82777689815</v>
+        <v>44173.828216249996</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>117</v>
@@ -2308,70 +2323,70 @@
         <v>15</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44173.828216249996</v>
+        <v>44173.828245011573</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="H44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44173.828378912032</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3">
-        <v>44173.82824501157</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44173.82837891203</v>
+        <v>44173.828856828703</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>9</v>
@@ -2380,143 +2395,143 @@
         <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44173.8288568287</v>
+        <v>44173.830121631945</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44173.830692256946</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44173.830747384258</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3">
-        <v>44173.830121631945</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="2" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44173.830912974532</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3">
-        <v>44173.830692256946</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3">
-        <v>44173.83074738426</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44173.83091297453</v>
+        <v>44173.830914895836</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>9</v>
@@ -2531,7 +2546,7 @@
         <v>133</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>134</v>
@@ -2540,12 +2555,12 @@
         <v>15</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44173.830914895836</v>
+        <v>44173.831889085646</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>9</v>
@@ -2569,12 +2584,12 @@
         <v>15</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44173.831889085646</v>
+        <v>44173.83229445602</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>9</v>
@@ -2589,7 +2604,7 @@
         <v>137</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>138</v>
@@ -2598,12 +2613,12 @@
         <v>15</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44173.83229445602</v>
+        <v>44173.832439571765</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
@@ -2627,12 +2642,12 @@
         <v>15</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44173.832439571765</v>
+        <v>44173.832511423607</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>9</v>
@@ -2644,39 +2659,39 @@
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44173.832614895829</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3">
-        <v>44173.83251142361</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>143</v>
@@ -2685,15 +2700,15 @@
         <v>15</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44173.83261489583</v>
+        <v>44173.833183900468</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -2705,24 +2720,24 @@
         <v>144</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44173.83318390047</v>
+        <v>44173.833304664353</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2734,68 +2749,68 @@
         <v>146</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>44173.833761956019</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>44173.833933773145</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3">
-        <v>44173.83330466435</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3">
-        <v>44173.83376195602</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>15</v>
@@ -2804,12 +2819,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44173.833933773145</v>
+        <v>44173.834061712958</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
@@ -2818,53 +2833,53 @@
         <v>151</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="H61" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44173.83406171296</v>
+        <v>44173.834539189818</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>154</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44173.83453918982</v>
+        <v>44173.834663483794</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>9</v>
@@ -2879,7 +2894,7 @@
         <v>155</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>156</v>
@@ -2888,12 +2903,12 @@
         <v>15</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44173.834663483794</v>
+        <v>44173.834823819445</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>9</v>
@@ -2908,7 +2923,7 @@
         <v>157</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>158</v>
@@ -2917,12 +2932,12 @@
         <v>15</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44173.834823819445</v>
+        <v>44173.834900983798</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>9</v>
@@ -2931,85 +2946,85 @@
         <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I65" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>44173.835426597223</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="3">
-        <v>44173.8349009838</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="2" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>44173.836089108794</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3">
-        <v>44173.83542659722</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>164</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44173.836089108794</v>
+        <v>44173.836297789356</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>9</v>
@@ -3021,39 +3036,39 @@
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>44173.839894108794</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3">
-        <v>44173.836297789356</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>167</v>
@@ -3062,56 +3077,56 @@
         <v>15</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44173.839894108794</v>
+        <v>44173.84125409722</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="H70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>44173.841478171293</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3">
-        <v>44173.84125409722</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>170</v>
@@ -3120,12 +3135,12 @@
         <v>15</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>44173.84147817129</v>
+        <v>44173.842108460653</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
@@ -3140,7 +3155,7 @@
         <v>171</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>172</v>
@@ -3149,12 +3164,12 @@
         <v>15</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44173.84210846065</v>
+        <v>44173.843921377316</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
@@ -3166,126 +3181,126 @@
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>44173.844406516204</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="F74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3">
-        <v>44173.843921377316</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="H74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>44173.845075914352</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="2" t="s">
+      <c r="G75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>44173.849924444439</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="3">
-        <v>44173.844406516204</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3">
-        <v>44173.84507591435</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="2" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>44173.850457118053</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3">
-        <v>44173.84992444444</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>179</v>
@@ -3294,12 +3309,12 @@
         <v>15</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>44173.85045711805</v>
+        <v>44173.852713541666</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
@@ -3311,24 +3326,24 @@
         <v>180</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>44173.852713541666</v>
+        <v>44173.854073298615</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -3337,16 +3352,16 @@
         <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>15</v>
@@ -3355,85 +3370,85 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44173.854073298615</v>
+        <v>44173.854973263893</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>44173.85497326389</v>
+        <v>44173.855127199073</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>44173.85512719907</v>
+        <v>44173.855432314813</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>15</v>
@@ -3442,9 +3457,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>44173.85543231481</v>
+        <v>44173.856811307865</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>9</v>
@@ -3453,27 +3468,27 @@
         <v>10</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>44173.856811307865</v>
+        <v>44173.860036296297</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>9</v>
@@ -3482,97 +3497,97 @@
         <v>10</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>44173.860156342591</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3">
-        <v>44173.8600362963</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G85" s="2" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>44173.86015634259</v>
+        <v>44173.862368969909</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>44173.86236896991</v>
+        <v>44173.863884606486</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>18</v>
@@ -3584,369 +3599,369 @@
         <v>15</v>
       </c>
       <c r="I87" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>44173.865906840278</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="3">
-        <v>44173.863884606486</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F88" s="2" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>44173.867775902778</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>44173.867955787035</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>44173.869715937501</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>44173.872489097223</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>44173.878776979167</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="2" t="s">
+      <c r="G93" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>44173.881726527776</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>44173.882690590282</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>44173.887308391204</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>44173.891847245366</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>44173.892128078704</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>44173.893943622686</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="3">
-        <v>44173.86590684028</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="3">
-        <v>44173.86777590278</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="3">
-        <v>44173.867955787035</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3">
-        <v>44173.8697159375</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3">
-        <v>44173.87248909722</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="3">
-        <v>44173.87877697917</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3">
-        <v>44173.881726527776</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3">
-        <v>44173.88269059028</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="3">
-        <v>44173.887308391204</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="3">
-        <v>44173.891847245366</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3">
-        <v>44173.8921280787</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="2" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>44173.895054560184</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="3">
-        <v>44173.89394362269</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>221</v>
@@ -3955,27 +3970,27 @@
         <v>13</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>44173.895054560184</v>
+        <v>44173.900126597218</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>223</v>
@@ -3984,27 +3999,27 @@
         <v>13</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>44173.911067673616</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3">
-        <v>44173.90012659722</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>225</v>
@@ -4013,79 +4028,79 @@
         <v>13</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I102" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>44173.91223587963</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>44173.912836921299</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="3">
-        <v>44173.911067673616</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3">
-        <v>44173.91223587963</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>44173.9128369213</v>
+        <v>44173.92632677083</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
@@ -4094,187 +4109,187 @@
         <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>44173.933749780088</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>44173.939340520832</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I105" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>44173.947593113422</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="3">
-        <v>44173.92632677083</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F106" s="2" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>44173.958599456018</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>44174.018676250002</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3">
-        <v>44173.93374978009</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="G110" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>44174.068422233795</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3">
-        <v>44173.93934052083</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3">
-        <v>44173.94759311342</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="3">
-        <v>44173.95859945602</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="3">
-        <v>44174.01867625</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>15</v>
@@ -4283,24 +4298,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>44174.068422233795</v>
+        <v>44174.178831585647</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>233</v>
@@ -4312,12 +4327,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>44174.17883158565</v>
+        <v>44174.426136400463</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>10</v>
@@ -4326,97 +4341,97 @@
         <v>49</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>44174.454078530092</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="H114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>44174.459968032403</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H113" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="3">
-        <v>44174.42613640046</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3">
-        <v>44174.45407853009</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F115" s="2" t="s">
+      <c r="H115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>44174.476332604172</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3">
-        <v>44174.4599680324</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>237</v>
@@ -4425,111 +4440,111 @@
         <v>15</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>44174.47633260417</v>
+        <v>44174.666177372681</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>44174.860936192126</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H117" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="3">
-        <v>44174.66617737268</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="H118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>44175.037903136574</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>44175.535152569442</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="3">
-        <v>44174.860936192126</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G119" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="3">
-        <v>44175.037903136574</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>13</v>
@@ -4538,15 +4553,15 @@
         <v>242</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>44175.53515256944</v>
+        <v>44175.535581319447</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
@@ -4555,13 +4570,13 @@
         <v>10</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>244</v>
@@ -4570,12 +4585,12 @@
         <v>15</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>44175.53558131945</v>
+        <v>44175.606617962963</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>9</v>
@@ -4587,13 +4602,13 @@
         <v>11</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>15</v>
@@ -4602,9 +4617,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>44175.60661796296</v>
+        <v>44175.886991226856</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
@@ -4613,16 +4628,16 @@
         <v>10</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>245</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>15</v>
@@ -4631,70 +4646,70 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>44175.88699122686</v>
+        <v>44175.97712329861</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>44175.97712329861</v>
+        <v>44176.566552476856</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>44176.566552476856</v>
+        <v>44181.676216458334</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>10</v>
@@ -4703,401 +4718,401 @@
         <v>49</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>44181.676216458334</v>
+        <v>44181.677254178241</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>44181.72987487269</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>44181.730039085647</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>44181.754183680554</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>44181.754380231483</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>44181.756691006944</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>44181.780970034721</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>44181.813709745373</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>44181.895534618059</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="3">
-        <v>44181.67725417824</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="3">
-        <v>44181.72987487269</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="3">
-        <v>44181.73003908565</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F130" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="3">
-        <v>44181.754183680554</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H131" s="2" t="s">
+      <c r="G135" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="3">
-        <v>44181.75438023148</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="3">
-        <v>44181.75669100694</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="3">
-        <v>44181.78097003472</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="3">
-        <v>44181.81370974537</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>44181.89553461806</v>
+        <v>44181.979026828703</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>44181.9790268287</v>
+        <v>44182.653328993052</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>44182.65332899305</v>
+        <v>44185.792658738428</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>44185.79265873843</v>
+        <v>44212.839365474538</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>44212.83936547454</v>
+        <v>44212.839426782404</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>9</v>
@@ -5109,13 +5124,13 @@
         <v>11</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>15</v>
@@ -5124,36 +5139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="3">
-        <v>44212.839426782404</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>